--- a/Optimizer_re/global_setting/opt_project_config.xlsx
+++ b/Optimizer_re/global_setting/opt_project_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>portfolio_name</t>
   </si>
@@ -49,6 +49,9 @@
     <t>mode_type</t>
   </si>
   <si>
+    <t>user_name</t>
+  </si>
+  <si>
     <t>kai_1</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>mode_v1</t>
+  </si>
+  <si>
+    <t>kai</t>
   </si>
   <si>
     <t>factor_name</t>
@@ -1235,13 +1241,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1250,7 +1256,7 @@
     <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,10 +1275,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7">
         <v>45658</v>
@@ -1281,13 +1290,16 @@
         <v>45778</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1316,21 +1328,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1344,7 +1356,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1358,7 +1370,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1372,7 +1384,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1386,7 +1398,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1400,7 +1412,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1414,7 +1426,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1428,7 +1440,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1442,7 +1454,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1456,7 +1468,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1470,7 +1482,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1484,7 +1496,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1498,7 +1510,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1512,7 +1524,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1540,7 +1552,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1554,7 +1566,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1568,7 +1580,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1582,7 +1594,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1596,7 +1608,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1610,7 +1622,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1624,7 +1636,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1638,7 +1650,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1666,7 +1678,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1680,7 +1692,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1694,7 +1706,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1708,7 +1720,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1722,7 +1734,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1736,7 +1748,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1750,7 +1762,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1764,7 +1776,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1778,7 +1790,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1792,7 +1804,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1806,7 +1818,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1820,7 +1832,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1834,7 +1846,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1848,7 +1860,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1862,7 +1874,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1876,7 +1888,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1900,7 +1912,7 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1912,15 +1924,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>310</v>
@@ -1928,7 +1940,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1936,7 +1948,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -1944,7 +1956,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -1952,15 +1964,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1968,7 +1980,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>0.5</v>
@@ -1976,7 +1988,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>0.5</v>
@@ -1984,7 +1996,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
         <v>0.5</v>
@@ -1992,7 +2004,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -2000,7 +2012,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2">
         <v>0.5</v>
@@ -2008,7 +2020,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2">
         <v>0.5</v>
@@ -2016,7 +2028,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2">
         <v>0.5</v>
@@ -2024,7 +2036,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2">
         <v>-1</v>
@@ -2032,7 +2044,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2">
         <v>-0.3</v>
@@ -2040,7 +2052,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2">
         <v>0.3</v>
@@ -2048,7 +2060,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2">
         <v>0.3</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2">
         <v>0.3</v>
@@ -2064,7 +2076,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2">
         <v>-0.2</v>
@@ -2072,7 +2084,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2">
         <v>0.6</v>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -2088,7 +2100,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -2096,7 +2108,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>

--- a/Optimizer_re/global_setting/opt_project_config.xlsx
+++ b/Optimizer_re/global_setting/opt_project_config.xlsx
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1475,7 +1475,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>44013</v>
+        <v>45689</v>
       </c>
       <c r="C2" s="2">
         <v>45817</v>
@@ -1493,19 +1493,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="1"/>
-    <row r="4" customFormat="1"/>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
-    <row r="15" customFormat="1"/>
     <row r="16" spans="3:3">
       <c r="C16" s="2"/>
     </row>

--- a/Optimizer_re/global_setting/opt_project_config.xlsx
+++ b/Optimizer_re/global_setting/opt_project_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27735" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio_info" sheetId="1" r:id="rId1"/>
@@ -1175,13 +1175,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1435,7 +1428,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1475,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>45689</v>
+        <v>45684</v>
       </c>
       <c r="C2" s="2">
-        <v>45817</v>
+        <v>45698</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
